--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
   </si>
   <si>
     <t>Child Care</t>
@@ -70,7 +70,7 @@
     <t>Purg Sports Resort</t>
   </si>
   <si>
-    <t>D4054</t>
+    <t xml:space="preserve">D4054                    </t>
   </si>
   <si>
     <t>Purg Sports Main Ave</t>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t xml:space="preserve">D5202                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
   </si>
   <si>
     <t>Purgy's</t>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>26022.9000</v>
+        <v>63308.8000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -534,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>5442.7200</v>
+        <v>7356.7200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>-353.0800</v>
+        <v>739.9200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -558,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>320.0000</v>
+        <v>640.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -570,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>13929.0500</v>
+        <v>30535.0000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>1391.6900</v>
+        <v>5921.0100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -594,7 +600,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>19014.3900</v>
+        <v>43584.5700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -606,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>19513.7300</v>
+        <v>26984.4500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -618,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>2131.2100</v>
+        <v>6160.2500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -630,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>12509.7400</v>
+        <v>25868.1000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -654,7 +660,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>20625.6500</v>
+        <v>20.0000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -666,7 +672,19 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>9803.9100</v>
+        <v>41007.5900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>16979.9600</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,88 +31,79 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4054                    </t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5202                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -481,10 +472,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -512,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>246.0000</v>
+        <v>-4317.4500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -526,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>63308.8000</v>
+        <v>84.1500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -540,151 +530,157 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>7356.7200</v>
+        <v>-17.9500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>739.9200</v>
+        <v>1310508.5800</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>640.0000</v>
+        <v>137.0400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>30535.0000</v>
+        <v>123425.7200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>5921.0100</v>
+        <v>127756.1000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>43584.5700</v>
+        <v>370460.3700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>26984.4500</v>
+        <v>219486.7600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>6160.2500</v>
+        <v>159.4900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>25868.1000</v>
+        <v>239360.5300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>100.0000</v>
+        <v>231891.3200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>20.0000</v>
+        <v>31364.4600</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>41007.5900</v>
+        <v>5402.7400</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>16979.9600</v>
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,79 +31,88 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T257                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>T105</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5113                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5202                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -472,9 +481,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -502,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-4317.4500</v>
+        <v>246.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -516,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>84.1500</v>
+        <v>63308.8000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -530,157 +540,151 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>-17.9500</v>
+        <v>7356.7200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>1310508.5800</v>
+        <v>739.9200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>137.0400</v>
+        <v>640.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>123425.7200</v>
+        <v>30535.0000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>127756.1000</v>
+        <v>5921.0100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>370460.3700</v>
+        <v>43584.5700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>219486.7600</v>
+        <v>26984.4500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>159.4900</v>
+        <v>6160.2500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>239360.5300</v>
+        <v>25868.1000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>231891.3200</v>
+        <v>100.0000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>31364.4600</v>
+        <v>20.0000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>5402.7400</v>
+        <v>40883.4500</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>0.0100</v>
+        <v>16979.9600</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>63308.8000</v>
+        <v>66534.6500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>739.9200</v>
+        <v>1137.9200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -576,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>30535.0000</v>
+        <v>33016.0000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>5921.0100</v>
+        <v>6229.0100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -600,7 +600,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>43584.5700</v>
+        <v>45260.9900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -612,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>26984.4500</v>
+        <v>27754.4400</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>6160.2500</v>
+        <v>6690.9000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>25868.1000</v>
+        <v>26500.6600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -660,7 +660,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>20.0000</v>
+        <v>40.0000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -672,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>40883.4500</v>
+        <v>42855.2800</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -684,7 +684,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>16979.9600</v>
+        <v>17601.6100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,88 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5202                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -481,10 +469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -505,14 +492,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>246.0000</v>
+        <v>-4362.4500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -520,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>66534.6500</v>
+        <v>84.1500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -534,157 +519,163 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>7356.7200</v>
+        <v>-17.9500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>1137.9200</v>
+        <v>1349168.4300</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>640.0000</v>
+        <v>158.0400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>33016.0000</v>
+        <v>125443.5100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>6229.0100</v>
+        <v>132168.1000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>45260.9900</v>
+        <v>384535.4200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>27754.4400</v>
+        <v>226728.9000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>6690.9000</v>
+        <v>159.4900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>26500.6600</v>
+        <v>247523.5400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>100.0000</v>
+        <v>242214.1100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>40.0000</v>
+        <v>31943.0100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
-        <v>42855.2800</v>
+        <v>6118.6100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>17601.6100</v>
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,88 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5202                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -481,10 +469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -505,14 +492,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>246.0000</v>
+        <v>-4452.4500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -520,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>71943.6500</v>
+        <v>102.8500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -534,157 +519,163 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>7356.7200</v>
+        <v>-17.9500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>5130.9200</v>
+        <v>1389651.5100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>640.0000</v>
+        <v>158.0400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>39073.0000</v>
+        <v>127126.3900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>6559.5100</v>
+        <v>141106.1000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>47317.0200</v>
+        <v>401715.3900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>28611.3100</v>
+        <v>234787.1800</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>7430.2600</v>
+        <v>166.9700</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>27763.3200</v>
+        <v>254820.7400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>100.0000</v>
+        <v>257034.0300</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>120.0000</v>
+        <v>32779.9700</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
-        <v>46289.6800</v>
+        <v>6722.3100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>18238.3500</v>
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,76 +31,94 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T257                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>T105</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5113                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4053                    </t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5202                    </t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -463,15 +481,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -492,12 +511,14 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-4452.4500</v>
+        <v>246.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -505,13 +526,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2">
-        <v>102.8500</v>
+        <v>119688.4000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -519,163 +540,169 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>-17.9500</v>
+        <v>12460.7200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>1389651.5100</v>
+        <v>18479.4200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>158.0400</v>
+        <v>1440.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>127126.3900</v>
+        <v>60227.5000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>141106.1000</v>
+        <v>10993.6800</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>401715.3900</v>
+        <v>62611.2200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>234787.1800</v>
+        <v>32674.8000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>166.9700</v>
+        <v>10543.5700</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>254820.7400</v>
+        <v>37398.0300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>257034.0300</v>
+        <v>100.0000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>32779.9700</v>
+        <v>999.6500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>6722.3100</v>
+        <v>280.0000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>0.0100</v>
+        <v>66512.5400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>23803.4200</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Revenue.xlsx
+++ b/reports/For Winter Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,94 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4053                    </t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5202                    </t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -481,16 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -511,14 +492,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>246.0000</v>
+        <v>-4537.4200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -526,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>119688.4000</v>
+        <v>102.8500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -540,169 +519,163 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>12460.7200</v>
+        <v>-17.9500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>18479.4200</v>
+        <v>152256.5300</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1440.0000</v>
+        <v>1693269.1100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>60227.5000</v>
+        <v>158.0400</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>10993.6800</v>
+        <v>184037.8500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>62611.2200</v>
+        <v>502806.0900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>32674.8000</v>
+        <v>269637.9600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>10543.5700</v>
+        <v>182.0300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>37398.0300</v>
+        <v>287950.7500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>100.0000</v>
+        <v>335611.2100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>999.6500</v>
+        <v>36354.4900</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
-        <v>280.0000</v>
+        <v>11814.5200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>66512.5400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>23803.4200</v>
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>
